--- a/sirmod/model-inputs.xlsx
+++ b/sirmod/model-inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/sirmod/sirmod/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE7BB19-966C-7443-86A1-09649105BF2F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A0A028-7D6F-B44E-93A9-9BEB04EE330C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27480" windowHeight="15460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="78">
   <si>
     <t>Susceptible</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>Population size</t>
-  </si>
-  <si>
-    <t>meta</t>
   </si>
   <si>
     <t>(0, 'maxrate')</t>
@@ -260,39 +257,6 @@
   </si>
   <si>
     <t>Dead other</t>
-  </si>
-  <si>
-    <t>foi_meta</t>
-  </si>
-  <si>
-    <t>death_other_meta</t>
-  </si>
-  <si>
-    <t>death_meta</t>
-  </si>
-  <si>
-    <t>rec_meta</t>
-  </si>
-  <si>
-    <t>Force-of-infection scale</t>
-  </si>
-  <si>
-    <t>Mortality rate scale</t>
-  </si>
-  <si>
-    <t>Disease mortality rate scale</t>
-  </si>
-  <si>
-    <t>Recovery rate scale</t>
-  </si>
-  <si>
-    <t>birth_meta</t>
-  </si>
-  <si>
-    <t>Birth rate scale</t>
-  </si>
-  <si>
-    <t>(0.05,50)</t>
   </si>
 </sst>
 </file>
@@ -13659,15 +13623,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -13675,34 +13639,34 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -13855,19 +13819,19 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>39</v>
-      </c>
       <c r="E1" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>76</v>
       </c>
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
@@ -13875,7 +13839,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -13889,7 +13853,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -13906,7 +13870,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -13917,7 +13881,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -13925,7 +13889,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -13956,7 +13920,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13:C17"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -13994,19 +13958,19 @@
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1">
       <c r="A2" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F2" s="10">
         <v>1</v>
@@ -14015,10 +13979,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>7</v>
@@ -14027,7 +13991,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F3" s="5">
         <v>1</v>
@@ -14036,19 +14000,19 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="5">
         <v>1</v>
@@ -14057,19 +14021,19 @@
     </row>
     <row r="5" spans="1:7" s="10" customFormat="1">
       <c r="A5" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="10">
         <v>1</v>
@@ -14077,19 +14041,19 @@
     </row>
     <row r="6" spans="1:7" s="10" customFormat="1">
       <c r="A6" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" s="10">
         <v>1</v>
@@ -14097,19 +14061,19 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>47</v>
-      </c>
       <c r="C7" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="10">
         <v>1</v>
@@ -14118,19 +14082,19 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>58</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>59</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" s="10">
         <v>1</v>
@@ -14139,19 +14103,19 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" s="10">
         <v>1</v>
@@ -14160,19 +14124,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" s="10">
         <v>1</v>
@@ -14181,19 +14145,19 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" s="10">
         <v>1</v>
@@ -14202,19 +14166,19 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="C12" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>66</v>
-      </c>
       <c r="D12" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12" s="10">
         <v>1</v>
@@ -14222,108 +14186,46 @@
       <c r="G12" s="10"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="5">
-        <v>0</v>
-      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
       <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="10">
-        <v>0</v>
-      </c>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
       <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="10">
-        <v>0</v>
-      </c>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
       <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="10">
-        <v>0</v>
-      </c>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="10">
-        <v>0</v>
-      </c>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
       <c r="G17" s="10"/>
     </row>
     <row r="18" spans="1:7">
@@ -14871,10 +14773,10 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -14883,10 +14785,10 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -14894,259 +14796,259 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
         <v>42</v>
       </c>
-      <c r="B3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" t="s">
-        <v>43</v>
-      </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>65</v>
-      </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>47</v>
-      </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>59</v>
-      </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
         <v>62</v>
-      </c>
-      <c r="E12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
       <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>49</v>
-      </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:6">
